--- a/docs/VerifPlans/Simulation/privileged_spec/CV32E40X_PMA_VerifPlan.xlsx
+++ b/docs/VerifPlans/Simulation/privileged_spec/CV32E40X_PMA_VerifPlan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hefegran\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hefegran\Desktop\PMA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4C7707-D507-40C2-85E3-593DAA946D01}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABE33DB-7FDA-4F5A-AF58-F9CDDA98ECE3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="3705" windowWidth="25440" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="High-level Feature" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="References" sheetId="3" r:id="rId3"/>
     <sheet name="Infrastructure requirements" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="186">
   <si>
     <t>Requirement Location</t>
   </si>
@@ -203,18 +203,6 @@
     <t>Assert that highest numbered PMA region &lt; 16 (assuming 0-indexed)</t>
   </si>
   <si>
-    <t>Address lower bound</t>
-  </si>
-  <si>
-    <t>Outlier values: Verify that lower bound set to bottom of memory range is functional for the 16 possible PMA regions</t>
-  </si>
-  <si>
-    <t>Address upper bound</t>
-  </si>
-  <si>
-    <t>Outlier values: Verify that upper bound set to top of memory range is functional for all the 16 possible PMA regions</t>
-  </si>
-  <si>
     <t>PMA Readability</t>
   </si>
   <si>
@@ -322,32 +310,11 @@
     <t>Instruction set simulators lacks support for PMA as PMA is not clearly specified in the RV spec, and is platform specific. To support PMA, support for the configuration parameters and correct behavior needs to be implemented. ISS and spike both support PMP, which will presumably make addition of further memory area checks relatively straightforward. Without PMA support we can not test correct behavior in cases where PMA restricts access to certain address ranges. Normal, allowed behavior should function as normal</t>
   </si>
   <si>
-    <t>Lower bounds must be defined and functional for all defined PMA regions.</t>
-  </si>
-  <si>
-    <t>Upper bounds must be defined and functional for all PMA regions.</t>
-  </si>
-  <si>
     <t>Any access matching multiple regions should attain the attributes of
  the lowest numbered matching region</t>
   </si>
   <si>
-    <t>Configuration</t>
-  </si>
-  <si>
     <t>0 Regions - Deconfigured</t>
-  </si>
-  <si>
-    <t>16 Regions - Maximum number of configured regions</t>
-  </si>
-  <si>
-    <t>1 Region - Minimum number of configured regions</t>
-  </si>
-  <si>
-    <t>7 Regions - Arbitrarly chosen middle ground</t>
-  </si>
-  <si>
-    <t>Verify that PMA regions works as intended by testing multiple configurations</t>
   </si>
   <si>
     <t>Instruction fetch coverpoint</t>
@@ -461,12 +428,6 @@
   </si>
   <si>
     <t xml:space="preserve">Fence instruction shall not be impacted by PMA memory/IO attribute and execute as a conservative fence on all operations </t>
-  </si>
-  <si>
-    <t>n Regions - Chosen based on actual desired implementation configuration (TBD)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assert that match[region] always implies that the following holds: lower[region] &lt;= addr[MSB:2] &lt; upper[region] </t>
   </si>
   <si>
     <t>Zce Extension</t>
@@ -607,12 +568,140 @@
     <t>Verify that program buffer code attempting to fetch instructions from PMA IO region fails, PC is set to dm_exception_addr_i and cmderr is set to 3 (exception error). No other registers should be changed due to this exception.</t>
   </si>
   <si>
+    <t>4e0bb0fc2d843473db2356623792c6b7603b94d4</t>
+  </si>
+  <si>
+    <t>https://github.com/riscv/riscv-debug-spec/blob/release/riscv-debug-release.pdf</t>
+  </si>
+  <si>
+    <t>5cfaac4990ee23b6b909b89e953b1c9d9047dea5</t>
+  </si>
+  <si>
+    <t>https://github.com/riscv/riscv-code-size-reduction/blob/master/ISA%20proposals/Huawei/Zce_spec.adoc</t>
+  </si>
+  <si>
+    <t>RISC-V Zce code-size reduction extension proposal v0.41.5</t>
+  </si>
+  <si>
+    <t>Zce spec. proposal v0.41.5</t>
+  </si>
+  <si>
+    <t>Risc-V External Debug Support Version 0.13.2</t>
+  </si>
+  <si>
+    <t>Test configuration 4, aims to verify the following:
+1. A standard memory map (Based on ARM Cortex)
+2. A fully defined, contiguous memory map with no undefined regions
+3. Multiple, non-overlapping regions</t>
+  </si>
+  <si>
+    <t>Configuration to be tested</t>
+  </si>
+  <si>
+    <t>Test configuration 6, aims to verify designs with the following characteristic:
+1. Non-contiguously defined maximum number of memory regions
+2. Maximum number of separate areas In memory (33)
+3. No overlap, single matching regions
+4. Non-defined areas prior and aft of each defined region
+Address map may be modified to better suit actual implemetations, but the above criteria must be adhered to.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test configuration 5, aims to verify the following:
+1. Region match priority
+2. Maximum number of separate areas in memory (33)
+Address may be modified to better suit implementation and verification enviornment, but the following criteria must be met:
+1. Each defined region must be enclosed by the adjacent region of lower priority
+2. No region boundaries must overlap
+3. There shall be undefined space prior to and aft of largest, highest numbered region
+</t>
+  </si>
+  <si>
+    <t>7 Regions:
+R[0]: 0x0000_0000-0x1FFF_FFFF (MBCA = 1111)
+R[1]: 0x2000_0000-0x3FFF_FFFF (MBCA = 1101)
+R[2]: 0x4000_0000-0x5FFF_FFFF (MBCA = 0101)
+R[3]: 0x6000_0000-0x9FFF_FFFF (MBCA = 1001)
+R[4]: 0xA000_0000-0xDFFF_FFFF (MBCA = 0101)
+R[5]: 0xE000_0000-0xE00F_FFFF (MBCA = 0000)
+R[6]: 0xE010_0000-0xFFFF_FFFF (MBCA = 0101)</t>
+  </si>
+  <si>
+    <t>16 Regions:
+R[0]:   0x4800_0000-0x49FF_FFFF (MBCA = 1011)
+R[1]:   0x4400_0000-0x4BFF_FFFF (MBCA = 0001)
+R[2]:   0x3ACE_0000-0x4ABC_FFFF (MBCA = 0100)
+R[3]:   0x3600_A000-0x4F99_FFFF (MBCA = 1111)
+R[4]:   0x3420_C854-0x5000_ABFF (MBCA = 1101)
+R[5]:   0x3100_FCAB-0x5000_BCCA (MBCA = 1001)
+R[6]:   0x3000_1353-0x5140_FFFF (MBCA = 0000)
+R[7]:   0x2C5A_3200-0x52FF_FFFF (MBCA = 0101)
+R[8]:   0x2A00_0000-0x56FF_FFFF (MBCA = 1111)
+R[9]:   0x2340_000A-0x600F_FFFF (MBCA = 0001)
+R[10]: 0x2000_0000-0x63FF_FFFF (MBCA = 0101)
+R[11]: 0x13AC_AA55-0x7FFF_FFFF (MBCA = 1011)
+R[12]: 0x1000_000F1-0x82FF_FFFF (MBCA = 1101)
+R[13]: 0x0500_0000-0x8459_FFFF (MBCA = 0100)
+R[14]: 0x0200_0000-0xEFFF_FFFF (MBCA = 0000)
+R[15]: 0x0000_A000-0xFFFE_FFFF (MBCA = 1111)</t>
+  </si>
+  <si>
+    <t>16 Regions:
+R[0]:   0x0001_0000-0x001F_FFFF (MBCA = 1001)
+R[1]:   0x0030_0000-0x04FF_FFFF (MBCA = 1111)
+R[2]:   0x1000_0000-0x1001_0000 (MBCA = 0100)
+R[3]:   0x1800_1234-0x18FF_AB21 (MBCA = 0000)
+R[4]:   0x2020_0010-0x2FFF_0000 (MBCA = 0001)
+R[5]:   0x3100_A000-0x32FF_FFFF (MBCA = 1111)
+R[6]:   0x3440_0000-0x3800_FFFF (MBCA = 0100)
+R[7]:   0x4AAA_F000-0x4C00_FFFF (MBCA = 1101)
+R[8]:   0x4D00_5555-0x4FFF_ABCD (MBCA = 1011)
+R[9]:   0x5100_0000-0x52FF_FFFF (MBCA = 0000)
+R[10]: 0x5400_0000-0x5FFF_FFFF (MBCA = 1111)
+R[11]: 0x6300_0000-0x6700_FFFF (MBCA = 0101)
+R[12]: 0xA000_0000-0xAFFF_FFFF (MBCA = 1001)
+R[13]: 0xBC00_0000-0xBCFF_FFFF (MBCA = 1101)
+R[14]: 0xC000_0000-0xDFFF_FFFF (MBCA = 0001)
+R[15]: 0xE700_EF00-0xE9FF_FFFF (MBCA = 0101)</t>
+  </si>
+  <si>
+    <t>1 Region: 
+R[0]: 0x0000_0000-0x7FFF_FFFF (MBCA = 1111)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Region: 
+R[0]: 0x0000_0000-0xFFFF_FFFF (MBCA = 1111)
+MBCA = M(ain memory)
+             B(ufferable)
+             C(acheable)
+             A(tomic operations allowed)
+</t>
+  </si>
+  <si>
+    <t>Test configuration 1, aims to verify the following:
+1. Default parameters for entire memory range</t>
+  </si>
+  <si>
+    <t>Test configuration 2, aims to verify the following:
+1. System configured with 1 PMA region only
+2. Full address range of maximum size
+3. Upper/Lower bounds for first region set to min/max values</t>
+  </si>
+  <si>
+    <t>Test configuration 3, aims to verify the following:
+1. Correct functionality for 1 defined region
+2. Correct behavior for undefined regions when a region is defined</t>
+  </si>
+  <si>
+    <t>Assert that match[region] always implies that the following holds: 
+lower[region] &amp; 2'b00 &lt;= addr[31:0] &lt; upper[region] 2'b00</t>
+  </si>
+  <si>
     <t xml:space="preserve">Attempt arbitrary non-naturally aligned load accesses to I/O regions specified by PMA and ensure that these accesses triggers precise load access fault exceptions (code 5). Ensure that non-aligned main memory accesses to permitted regions do not generate these exceptions. 
 The following CSRs must be verified: Verify mcause, mepc, mtval
 Test possible combinations of misalignment, the following are of particular interest as it will result in two memory access operations: 
 ld from addresses in IO space with or_reduce(addr_lsb[2:0]) = 1
 lw from addresses in IO space with or_reduce(addr_lsb[1:0]) = 1
-lh from addresses in IO space with addr_lsb[0] = 1 &amp; and_reduce(addr_lsb[1:0]) = 1
+lh from addresses in IO space with and_reduce(addr_lsb[1:0]) = 1
 </t>
   </si>
   <si>
@@ -621,28 +710,35 @@
 Test possible combinations of misalignment, the following are of particular interest as it will result in two memory access operations: 
 sd to addresses in IO space with or_reduce(addr_lsb[2:0]) = 1
 sw to addresses in IO space with or_reduce(addr_lsb[1:0]) = 1
-sh to addresses in IO space with addr_lsb[0] = 1 &amp; and_reduce(addr_lsb[1:0]) = 1</t>
-  </si>
-  <si>
-    <t>4e0bb0fc2d843473db2356623792c6b7603b94d4</t>
-  </si>
-  <si>
-    <t>https://github.com/riscv/riscv-debug-spec/blob/release/riscv-debug-release.pdf</t>
-  </si>
-  <si>
-    <t>5cfaac4990ee23b6b909b89e953b1c9d9047dea5</t>
-  </si>
-  <si>
-    <t>https://github.com/riscv/riscv-code-size-reduction/blob/master/ISA%20proposals/Huawei/Zce_spec.adoc</t>
-  </si>
-  <si>
-    <t>RISC-V Zce code-size reduction extension proposal v0.41.5</t>
-  </si>
-  <si>
-    <t>Zce spec. proposal v0.41.5</t>
-  </si>
-  <si>
-    <t>Risc-V External Debug Support Version 0.13.2</t>
+sh to addresses in IO space with and_reduce(addr_lsb[1:0]) = 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test configuration 7, aims to verify the following:
+1. Zero length regions does not match any accesses
+2. Upper/Lower bound of outlier (last) region set to min/max of address range
+Address map may be modified to better suit actual implementations, but R[15] must be defined to min/max possible address range. Remaining regions shall have 0 length.
+</t>
+  </si>
+  <si>
+    <t>16 Regions:
+Note: Zero length regions are intentional
+R[0]:   0x0000_0000-0x0000_0000 (MBCA = 0000)
+R[1]:   0x5555_5555-0x5555_5555 (MBCA = 0000)
+R[2]:   0x0000_0000-0x0000_0000 (MBCA = 0000)
+R[3]:   0xAAAA_AAAA-0xAAAA_AAAA (MBCA = 0000)
+R[4]:   0xCCCC_CCCC-0xCCCC_CCCC (MBCA = 0000)
+R[5]:   0x0000_0000-0x0000_0000 (MBCA = 0000)
+R[6]:   0xE38E_E38E-0xE38E_E38E (MBCA = 0000)
+R[7]:   0x0000_0000-0x0000_0000 (MBCA = 0000)
+R[8]:   0xFFFF_FFFF-0xFFFF_FFFF (MBCA = 0000)
+R[9]:   0x0000_0000-0x0000_0000 (MBCA = 0000)
+R[10]: 0x9249_2492-0x9249_2492 (MBCA = 0000)
+R[11]: 0x0000_0000-0x0000_0000 (MBCA = 0000)
+R[12]: 0xDB6D_B6DB-0xDB6D_B6DB (MBCA = 0000)
+R[13]: 0x0000_0000-0x0000_0000 (MBCA = 0000)
+R[14]: 0x1249_2492-0x1249_2492 (MBCA = 0000)
+Only one non-zero region:
+R[15]: 0x0000_0000-0xFFFF_FFFF (MBCA = 1111)</t>
   </si>
 </sst>
 </file>
@@ -719,7 +815,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -773,14 +869,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1165,29 +1267,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ114"/>
+  <dimension ref="A1:AMJ106"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="17" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.26953125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="45.54296875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.08984375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="51.26953125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="89.26953125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="21.7265625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="18.453125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="22.81640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="54.54296875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="45.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="60.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="89.28515625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="54.5703125" style="4" customWidth="1"/>
     <col min="10" max="1023" width="17" style="4"/>
-    <col min="1024" max="1024" width="9.08984375" style="4" customWidth="1"/>
+    <col min="1024" max="1024" width="9.140625" style="4" customWidth="1"/>
     <col min="1025" max="16384" width="17" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1216,18 +1318,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="36.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="19" t="s">
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>51</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>53</v>
@@ -1243,17 +1345,17 @@
       </c>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19" t="s">
-        <v>96</v>
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23" t="s">
+        <v>170</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>101</v>
+        <v>90</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>178</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>22</v>
@@ -1262,37 +1364,41 @@
         <v>26</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I3" s="7"/>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" ht="42.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="7" t="s">
+    <row r="4" spans="1:9" s="1" customFormat="1" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="F4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" ht="45.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
+      <c r="H4" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="19"/>
+    </row>
+    <row r="5" spans="1:9" s="1" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
       <c r="D5" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="E5" s="19"/>
+        <v>176</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>180</v>
+      </c>
       <c r="F5" s="7" t="s">
         <v>22</v>
       </c>
@@ -1300,18 +1406,20 @@
         <v>26</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" ht="45.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
+    <row r="6" spans="1:9" s="1" customFormat="1" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
       <c r="D6" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E6" s="19"/>
+        <v>173</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>169</v>
+      </c>
       <c r="F6" s="7" t="s">
         <v>22</v>
       </c>
@@ -1319,18 +1427,20 @@
         <v>26</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" s="19"/>
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="267" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>172</v>
+      </c>
       <c r="F7" s="7" t="s">
         <v>22</v>
       </c>
@@ -1338,78 +1448,84 @@
         <v>26</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19" t="s">
-        <v>54</v>
-      </c>
+    <row r="8" spans="1:9" s="1" customFormat="1" ht="265.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>55</v>
+        <v>175</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>171</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" s="1" customFormat="1" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="20"/>
+        <v>24</v>
+      </c>
+      <c r="I8" s="19"/>
+    </row>
+    <row r="9" spans="1:9" s="1" customFormat="1" ht="287.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>24</v>
+      </c>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:9" s="1" customFormat="1" ht="65.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="7" t="s">
-        <v>56</v>
+    <row r="10" spans="1:9" s="1" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23" t="s">
+        <v>94</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9" s="1" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19" t="s">
-        <v>105</v>
-      </c>
+    <row r="11" spans="1:9" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
       <c r="D11" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>16</v>
@@ -1422,15 +1538,15 @@
       </c>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
+    <row r="12" spans="1:9" s="1" customFormat="1" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
       <c r="D12" s="7" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>16</v>
@@ -1443,15 +1559,15 @@
       </c>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" s="1" customFormat="1" ht="32.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
+    <row r="13" spans="1:9" s="1" customFormat="1" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>16</v>
@@ -1464,15 +1580,15 @@
       </c>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" s="1" customFormat="1" ht="32.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
+    <row r="14" spans="1:9" s="1" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
       <c r="D14" s="7" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>16</v>
@@ -1485,15 +1601,15 @@
       </c>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" s="1" customFormat="1" ht="29.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
+    <row r="15" spans="1:9" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
       <c r="D15" s="7" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>16</v>
@@ -1506,15 +1622,15 @@
       </c>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" s="1" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
+    <row r="16" spans="1:9" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="7" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>16</v>
@@ -1527,15 +1643,15 @@
       </c>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
+    <row r="17" spans="1:9" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
       <c r="D17" s="7" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>16</v>
@@ -1548,129 +1664,135 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>111</v>
+    <row r="18" spans="1:9" s="1" customFormat="1" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>113</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" s="1" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="1:9" s="1" customFormat="1" ht="101.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:9" s="1" customFormat="1" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H18" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="1:9" s="1" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="19" t="s">
+      <c r="H22" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="1:9" s="1" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:9" s="1" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="1:9" s="1" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="19" t="s">
+      <c r="C23" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="1:9" s="1" customFormat="1" ht="101" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="1:9" s="1" customFormat="1" ht="48.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>120</v>
+      <c r="D23" s="23" t="s">
+        <v>139</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>121</v>
+        <v>181</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>26</v>
@@ -1680,21 +1802,13 @@
       </c>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" s="1" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>139</v>
+    <row r="24" spans="1:9" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23" t="s">
+        <v>62</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>19</v>
@@ -1702,560 +1816,576 @@
       <c r="G24" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="H24" s="11" t="s">
-        <v>15</v>
+      <c r="H24" s="19" t="s">
+        <v>26</v>
       </c>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" s="1" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19" t="s">
+    <row r="25" spans="1:9" s="1" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="23"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="1:9" s="1" customFormat="1" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="1:9" s="1" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="1:9" s="1" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="7"/>
+    </row>
+    <row r="29" spans="1:9" s="1" customFormat="1" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="23"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="E29" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="1:9" s="1" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="7"/>
+    </row>
+    <row r="31" spans="1:9" s="1" customFormat="1" ht="63.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="E31" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" s="7"/>
+    </row>
+    <row r="32" spans="1:9" s="1" customFormat="1" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" s="7"/>
+    </row>
+    <row r="33" spans="1:9" s="1" customFormat="1" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="B33" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" s="7"/>
+    </row>
+    <row r="34" spans="1:9" s="1" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="23"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" s="7"/>
+    </row>
+    <row r="35" spans="1:9" s="1" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="23"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" s="7"/>
+    </row>
+    <row r="36" spans="1:9" s="1" customFormat="1" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="23"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" s="7"/>
+    </row>
+    <row r="37" spans="1:9" s="1" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="23"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" s="7"/>
+    </row>
+    <row r="38" spans="1:9" s="1" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="23"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H38" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38" s="7"/>
+    </row>
+    <row r="39" spans="1:9" s="1" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="23"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G39" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" s="7"/>
+    </row>
+    <row r="40" spans="1:9" s="1" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="23"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H40" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" s="7"/>
+    </row>
+    <row r="41" spans="1:9" s="1" customFormat="1" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="23"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G41" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H41" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I41" s="7"/>
+    </row>
+    <row r="42" spans="1:9" s="1" customFormat="1" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="23"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F42" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G42" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H42" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I42" s="7"/>
+    </row>
+    <row r="43" spans="1:9" s="1" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="23"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F43" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G43" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H43" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43" s="7"/>
+    </row>
+    <row r="44" spans="1:9" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="23"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I44" s="7"/>
+    </row>
+    <row r="45" spans="1:9" s="1" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E45" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G45" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H25" s="11" t="s">
+      <c r="H45" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="1:9" s="1" customFormat="1" ht="41.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="7" t="s">
+      <c r="I45" s="7"/>
+    </row>
+    <row r="46" spans="1:9" s="1" customFormat="1" ht="172.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="23"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G46" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H26" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" s="7"/>
-    </row>
-    <row r="27" spans="1:9" s="1" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="F27" s="7" t="s">
+      <c r="H46" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I46" s="7"/>
+    </row>
+    <row r="47" spans="1:9" s="1" customFormat="1" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="23"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="G47" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="11" t="s">
+      <c r="H47" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="1:9" s="1" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="7" t="s">
+      <c r="I47" s="7"/>
+    </row>
+    <row r="48" spans="1:9" s="1" customFormat="1" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="23"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G48" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H28" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I28" s="7"/>
-    </row>
-    <row r="29" spans="1:9" s="1" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="7" t="s">
+      <c r="H48" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I48" s="7"/>
+    </row>
+    <row r="49" spans="1:9" s="1" customFormat="1" ht="90.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="23"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="E49" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I49" s="7"/>
+    </row>
+    <row r="50" spans="1:9" s="1" customFormat="1" ht="75.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="23"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G29" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="1:9" s="1" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="F30" s="7" t="s">
+      <c r="G50" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I50" s="7"/>
+    </row>
+    <row r="51" spans="1:9" s="1" customFormat="1" ht="90.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="23"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="E51" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="F51" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G30" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H30" s="11" t="s">
+      <c r="G51" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I30" s="7"/>
-    </row>
-    <row r="31" spans="1:9" s="1" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="7" t="s">
+      <c r="I51" s="7"/>
+    </row>
+    <row r="52" spans="1:9" s="1" customFormat="1" ht="90.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="23"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="G52" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H31" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I31" s="7"/>
-    </row>
-    <row r="32" spans="1:9" s="1" customFormat="1" ht="64" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="19" t="s">
+      <c r="H52" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I52" s="7"/>
+    </row>
+    <row r="53" spans="1:9" s="1" customFormat="1" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="23"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="E53" s="23" t="s">
         <v>149</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I32" s="7"/>
-    </row>
-    <row r="33" spans="1:9" s="1" customFormat="1" ht="69.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I33" s="7"/>
-    </row>
-    <row r="34" spans="1:9" s="1" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="E34" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I34" s="7"/>
-    </row>
-    <row r="35" spans="1:9" s="1" customFormat="1" ht="36.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="19"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I35" s="7"/>
-    </row>
-    <row r="36" spans="1:9" s="1" customFormat="1" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="19"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I36" s="7"/>
-    </row>
-    <row r="37" spans="1:9" s="1" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="19"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I37" s="7"/>
-    </row>
-    <row r="38" spans="1:9" s="1" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="19"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="E38" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H38" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I38" s="7"/>
-    </row>
-    <row r="39" spans="1:9" s="1" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="19"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H39" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I39" s="7"/>
-    </row>
-    <row r="40" spans="1:9" s="1" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="19"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H40" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I40" s="7"/>
-    </row>
-    <row r="41" spans="1:9" s="1" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="19"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H41" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I41" s="7"/>
-    </row>
-    <row r="42" spans="1:9" s="1" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="19"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="E42" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H42" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I42" s="7"/>
-    </row>
-    <row r="43" spans="1:9" s="1" customFormat="1" ht="48.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="19"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I43" s="7"/>
-    </row>
-    <row r="44" spans="1:9" s="1" customFormat="1" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="19"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="E44" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I44" s="7"/>
-    </row>
-    <row r="45" spans="1:9" s="1" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="19"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H45" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I45" s="7"/>
-    </row>
-    <row r="46" spans="1:9" s="1" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="19"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H46" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I46" s="7"/>
-    </row>
-    <row r="47" spans="1:9" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="19"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I47" s="7"/>
-    </row>
-    <row r="48" spans="1:9" s="1" customFormat="1" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="19"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E48" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H48" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I48" s="7"/>
-    </row>
-    <row r="49" spans="1:9" s="1" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="19"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H49" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I49" s="7"/>
-    </row>
-    <row r="50" spans="1:9" s="1" customFormat="1" ht="36.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="19"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H50" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I50" s="7"/>
-    </row>
-    <row r="51" spans="1:9" s="1" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="19"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H51" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I51" s="7"/>
-    </row>
-    <row r="52" spans="1:9" s="1" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="19"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H52" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I52" s="7"/>
-    </row>
-    <row r="53" spans="1:9" s="1" customFormat="1" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B53" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C53" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D53" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E53" s="19" t="s">
-        <v>175</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>10</v>
@@ -2268,12 +2398,12 @@
       </c>
       <c r="I53" s="7"/>
     </row>
-    <row r="54" spans="1:9" s="1" customFormat="1" ht="152" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="19"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
+    <row r="54" spans="1:9" s="1" customFormat="1" ht="90.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="23"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
       <c r="F54" s="7" t="s">
         <v>16</v>
       </c>
@@ -2285,15 +2415,21 @@
       </c>
       <c r="I54" s="7"/>
     </row>
-    <row r="55" spans="1:9" s="1" customFormat="1" ht="34" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="19"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="E55" s="19" t="s">
-        <v>176</v>
+    <row r="55" spans="1:9" s="1" customFormat="1" ht="86.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B55" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C55" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="D55" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="E55" s="23" t="s">
+        <v>142</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>10</v>
@@ -2306,12 +2442,12 @@
       </c>
       <c r="I55" s="7"/>
     </row>
-    <row r="56" spans="1:9" s="1" customFormat="1" ht="152.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="19"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
+    <row r="56" spans="1:9" s="1" customFormat="1" ht="86.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="23"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
       <c r="F56" s="7" t="s">
         <v>16</v>
       </c>
@@ -2323,17 +2459,17 @@
       </c>
       <c r="I56" s="7"/>
     </row>
-    <row r="57" spans="1:9" s="1" customFormat="1" ht="91" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="19"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="19" t="s">
+    <row r="57" spans="1:9" s="1" customFormat="1" ht="86.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="23"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="D57" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="E57" s="19" t="s">
-        <v>161</v>
+      <c r="D57" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="E57" s="23" t="s">
+        <v>141</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>10</v>
@@ -2346,14 +2482,14 @@
       </c>
       <c r="I57" s="7"/>
     </row>
-    <row r="58" spans="1:9" s="1" customFormat="1" ht="76" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="19"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
+    <row r="58" spans="1:9" s="1" customFormat="1" ht="86.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="23"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
       <c r="F58" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G58" s="7" t="s">
         <v>23</v>
@@ -2363,15 +2499,17 @@
       </c>
       <c r="I58" s="7"/>
     </row>
-    <row r="59" spans="1:9" s="1" customFormat="1" ht="91" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="19"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="E59" s="19" t="s">
-        <v>160</v>
+    <row r="59" spans="1:9" s="1" customFormat="1" ht="86.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="23"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D59" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>10</v>
@@ -2384,76 +2522,82 @@
       </c>
       <c r="I59" s="7"/>
     </row>
-    <row r="60" spans="1:9" s="1" customFormat="1" ht="91" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="19"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
+    <row r="60" spans="1:9" s="1" customFormat="1" ht="86.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="23"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="7" t="s">
+        <v>153</v>
+      </c>
       <c r="F60" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I60" s="7"/>
+    </row>
+    <row r="61" spans="1:9" s="1" customFormat="1" ht="86.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="23"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F61" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G60" s="7" t="s">
+      <c r="G61" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H60" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I60" s="7"/>
-    </row>
-    <row r="61" spans="1:9" s="1" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="19"/>
-      <c r="B61" s="19"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="E61" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="F61" s="7" t="s">
+      <c r="H61" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I61" s="7"/>
+    </row>
+    <row r="62" spans="1:9" s="1" customFormat="1" ht="86.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B62" s="23"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F62" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G61" s="7" t="s">
+      <c r="G62" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H61" s="11" t="s">
+      <c r="H62" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I61" s="7"/>
-    </row>
-    <row r="62" spans="1:9" s="1" customFormat="1" ht="91" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="19"/>
-      <c r="B62" s="19"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H62" s="11" t="s">
-        <v>15</v>
-      </c>
       <c r="I62" s="7"/>
     </row>
-    <row r="63" spans="1:9" s="1" customFormat="1" ht="86" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B63" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="C63" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="D63" s="19" t="s">
+    <row r="63" spans="1:9" s="1" customFormat="1" ht="86.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="E63" s="19" t="s">
-        <v>155</v>
+      <c r="B63" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>160</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>10</v>
@@ -2466,34 +2610,44 @@
       </c>
       <c r="I63" s="7"/>
     </row>
-    <row r="64" spans="1:9" s="1" customFormat="1" ht="86" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="19"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
+    <row r="64" spans="1:9" s="1" customFormat="1" ht="86.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="23"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>161</v>
+      </c>
       <c r="F64" s="7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I64" s="7"/>
     </row>
-    <row r="65" spans="1:9" s="1" customFormat="1" ht="86" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="19"/>
-      <c r="B65" s="19"/>
-      <c r="C65" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="D65" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="E65" s="19" t="s">
-        <v>154</v>
+    <row r="65" spans="1:9" s="1" customFormat="1" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C65" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D65" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E65" s="23" t="s">
+        <v>111</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>10</v>
@@ -2506,12 +2660,12 @@
       </c>
       <c r="I65" s="7"/>
     </row>
-    <row r="66" spans="1:9" s="1" customFormat="1" ht="86" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="19"/>
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
+    <row r="66" spans="1:9" s="1" customFormat="1" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="23"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
       <c r="F66" s="7" t="s">
         <v>16</v>
       </c>
@@ -2523,17 +2677,15 @@
       </c>
       <c r="I66" s="7"/>
     </row>
-    <row r="67" spans="1:9" s="1" customFormat="1" ht="86" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="19"/>
-      <c r="B67" s="19"/>
-      <c r="C67" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="D67" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>167</v>
+    <row r="67" spans="1:9" s="1" customFormat="1" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="23"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E67" s="23" t="s">
+        <v>112</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>10</v>
@@ -2546,32 +2698,38 @@
       </c>
       <c r="I67" s="7"/>
     </row>
-    <row r="68" spans="1:9" s="1" customFormat="1" ht="86" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="19"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="7" t="s">
-        <v>166</v>
-      </c>
+    <row r="68" spans="1:9" s="1" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="23"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="23"/>
       <c r="F68" s="7" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I68" s="7"/>
     </row>
-    <row r="69" spans="1:9" s="1" customFormat="1" ht="86" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="19"/>
-      <c r="B69" s="19"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
+    <row r="69" spans="1:9" s="1" customFormat="1" ht="81.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>126</v>
+      </c>
       <c r="E69" s="7" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>16</v>
@@ -2582,278 +2740,165 @@
       <c r="H69" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I69" s="7"/>
-    </row>
-    <row r="70" spans="1:9" s="1" customFormat="1" ht="86" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I69" s="21"/>
+    </row>
+    <row r="70" spans="1:9" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="B70" s="19"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="F70" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H70" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I70" s="7"/>
-    </row>
-    <row r="71" spans="1:9" s="1" customFormat="1" ht="86" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="B71" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G71" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H71" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I71" s="7"/>
-    </row>
-    <row r="72" spans="1:9" s="1" customFormat="1" ht="86" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="19"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="F72" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G72" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H72" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I72" s="7"/>
-    </row>
-    <row r="73" spans="1:9" s="1" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B73" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C73" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D73" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E73" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H73" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I73" s="7"/>
-    </row>
-    <row r="74" spans="1:9" s="1" customFormat="1" ht="78.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="19"/>
-      <c r="B74" s="19"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="19"/>
-      <c r="E74" s="19"/>
-      <c r="F74" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H74" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I74" s="7"/>
-    </row>
-    <row r="75" spans="1:9" s="1" customFormat="1" ht="41.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="19"/>
-      <c r="B75" s="19"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="E75" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H75" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I75" s="7"/>
-    </row>
-    <row r="76" spans="1:9" s="1" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="19"/>
-      <c r="B76" s="19"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="19"/>
-      <c r="E76" s="19"/>
-      <c r="F76" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G76" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H76" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I76" s="7"/>
-    </row>
-    <row r="77" spans="1:9" s="1" customFormat="1" ht="82" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B77" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="E77" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F77" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G77" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H77" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I77" s="22"/>
-    </row>
-    <row r="78" spans="1:9" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B78" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="C78" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="F78" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F70" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G78" s="6" t="s">
+      <c r="G70" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H78" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I78" s="22"/>
-    </row>
-    <row r="79" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="7"/>
-      <c r="B79" s="11"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
+      <c r="H70" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I70" s="21"/>
+    </row>
+    <row r="71" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="7"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+    </row>
+    <row r="72" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+    </row>
+    <row r="73" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+    </row>
+    <row r="74" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+    </row>
+    <row r="75" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+    </row>
+    <row r="76" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+    </row>
+    <row r="77" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+    </row>
+    <row r="78" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="6"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+    </row>
+    <row r="79" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="21"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
     </row>
-    <row r="80" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
     </row>
-    <row r="81" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
     </row>
-    <row r="82" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
     </row>
-    <row r="83" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
     </row>
-    <row r="84" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
     </row>
-    <row r="85" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
     </row>
-    <row r="86" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="6"/>
+    <row r="86" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
     </row>
-    <row r="87" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="22"/>
+    <row r="87" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
     </row>
-    <row r="88" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
     </row>
-    <row r="89" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
     </row>
-    <row r="90" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
     </row>
-    <row r="91" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -2861,7 +2906,7 @@
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
     </row>
-    <row r="92" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -2869,7 +2914,7 @@
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
     </row>
-    <row r="93" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -2877,7 +2922,7 @@
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
     </row>
-    <row r="94" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -2885,8 +2930,7 @@
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
     </row>
-    <row r="95" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="2"/>
+    <row r="95" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -2894,8 +2938,7 @@
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
     </row>
-    <row r="96" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="2"/>
+    <row r="96" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -2903,8 +2946,7 @@
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
     </row>
-    <row r="97" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="2"/>
+    <row r="97" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -2912,8 +2954,7 @@
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
     </row>
-    <row r="98" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="2"/>
+    <row r="98" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -2921,8 +2962,7 @@
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
     </row>
-    <row r="99" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="2"/>
+    <row r="99" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -2930,7 +2970,7 @@
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
     </row>
-    <row r="100" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -2938,7 +2978,7 @@
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
     </row>
-    <row r="101" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -2946,7 +2986,7 @@
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
     </row>
-    <row r="102" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -2954,7 +2994,7 @@
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
     </row>
-    <row r="103" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
@@ -2962,7 +3002,7 @@
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
     </row>
-    <row r="104" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
@@ -2970,7 +3010,7 @@
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
     </row>
-    <row r="105" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
@@ -2978,171 +3018,92 @@
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
     </row>
-    <row r="106" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
-      <c r="G106" s="2"/>
-    </row>
-    <row r="107" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
-      <c r="F107" s="2"/>
-      <c r="G107" s="2"/>
-    </row>
-    <row r="108" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
-      <c r="G108" s="2"/>
-    </row>
-    <row r="109" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
-      <c r="G109" s="2"/>
-    </row>
-    <row r="110" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="2"/>
-      <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
-      <c r="F110" s="2"/>
-      <c r="G110" s="2"/>
-    </row>
-    <row r="111" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
-      <c r="G111" s="2"/>
-    </row>
-    <row r="112" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
-      <c r="G112" s="2"/>
-    </row>
-    <row r="113" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="2"/>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
-      <c r="F113" s="2"/>
-      <c r="G113" s="2"/>
-    </row>
-    <row r="114" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="21" t="s">
+    <row r="106" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B114" s="21"/>
-      <c r="C114" s="21"/>
-      <c r="D114" s="21"/>
-      <c r="E114" s="21"/>
-      <c r="F114" s="21"/>
-      <c r="G114" s="21"/>
-      <c r="H114" s="21"/>
-      <c r="I114" s="21"/>
+      <c r="B106" s="24"/>
+      <c r="C106" s="24"/>
+      <c r="D106" s="24"/>
+      <c r="E106" s="24"/>
+      <c r="F106" s="24"/>
+      <c r="G106" s="24"/>
+      <c r="H106" s="24"/>
+      <c r="I106" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="86">
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B63:B70"/>
-    <mergeCell ref="A63:A69"/>
-    <mergeCell ref="E63:E64"/>
+  <mergeCells count="71">
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B55:B62"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="C59:C62"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="A23:A32"/>
+    <mergeCell ref="B23:B32"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="A45:A54"/>
+    <mergeCell ref="B45:B54"/>
+    <mergeCell ref="C49:C54"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="A33:A44"/>
+    <mergeCell ref="B33:B44"/>
+    <mergeCell ref="C40:C44"/>
+    <mergeCell ref="A106:I106"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="C45:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="C65:C68"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="B2:B17"/>
+    <mergeCell ref="C10:C17"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
     <mergeCell ref="E65:E66"/>
-    <mergeCell ref="C67:C70"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="A24:A33"/>
-    <mergeCell ref="B24:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="A53:A62"/>
-    <mergeCell ref="B53:B62"/>
-    <mergeCell ref="C57:C62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="A34:A52"/>
-    <mergeCell ref="B34:B52"/>
-    <mergeCell ref="C44:C52"/>
-    <mergeCell ref="A114:I114"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="A2:A18"/>
-    <mergeCell ref="B2:B18"/>
-    <mergeCell ref="C11:C18"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="C34:C43"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="E3:E7"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="C53:C56"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E45:E46"/>
     <mergeCell ref="E53:E54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="A73:A76"/>
-    <mergeCell ref="B73:B76"/>
-    <mergeCell ref="C73:C76"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E49:E50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3156,7 +3117,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>H2:H8 H10:H113</xm:sqref>
+          <xm:sqref>H2:H23 H25:H105</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
@@ -3165,7 +3126,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>G2:G8 G10:G113</xm:sqref>
+          <xm:sqref>G2:G105 H24</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
@@ -3174,13 +3135,13 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>F2:F8 F10:F113</xm:sqref>
+          <xm:sqref>F2:F105</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{71A1D836-C7A5-445C-9F7B-7F8C13015211}">
           <x14:formula1>
             <xm:f>References!$B$3:$B$7</xm:f>
           </x14:formula1>
-          <xm:sqref>A2 A19:A21 A34 A53 A86 A63 A24 A73:A79 A70:A71</xm:sqref>
+          <xm:sqref>A2 A18:A20 A33 A45 A78 A55 A23 A65:A71 A62:A63</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3196,17 +3157,17 @@
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.1796875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="5"/>
-    <col min="3" max="3" width="32.26953125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="5"/>
-    <col min="5" max="5" width="23.08984375" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="5"/>
+    <col min="1" max="1" width="23.140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="5"/>
+    <col min="3" max="3" width="32.28515625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="5"/>
+    <col min="5" max="5" width="23.140625" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
@@ -3219,7 +3180,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
@@ -3230,7 +3191,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
@@ -3241,7 +3202,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>16</v>
       </c>
@@ -3252,7 +3213,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>19</v>
       </c>
@@ -3263,7 +3224,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>22</v>
       </c>
@@ -3274,7 +3235,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>25</v>
       </c>
@@ -3282,7 +3243,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
@@ -3290,7 +3251,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10" s="5" t="s">
         <v>24</v>
       </c>
@@ -3305,21 +3266,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.90625" style="14" customWidth="1"/>
-    <col min="2" max="2" width="31.54296875" style="14" customWidth="1"/>
-    <col min="3" max="3" width="72.6328125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="130.90625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="53.36328125" style="14" customWidth="1"/>
-    <col min="6" max="16384" width="11.54296875" style="14"/>
+    <col min="1" max="1" width="2.85546875" style="14" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="72.5703125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="130.85546875" style="14" customWidth="1"/>
+    <col min="5" max="5" width="53.42578125" style="14" customWidth="1"/>
+    <col min="6" max="16384" width="11.5703125" style="14"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
         <v>27</v>
       </c>
@@ -3333,60 +3294,60 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D3" s="15"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="15" t="s">
+      <c r="C5" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="42" x14ac:dyDescent="0.35">
-      <c r="B5" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>178</v>
+        <v>168</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>163</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="14.5" x14ac:dyDescent="0.35">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>181</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>180</v>
+        <v>166</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>165</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -3413,55 +3374,55 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.7265625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="77.6328125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="74.7265625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="62.1796875" style="17" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="17"/>
+    <col min="1" max="1" width="41.7109375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="77.5703125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="74.7109375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="62.140625" style="17" customWidth="1"/>
+    <col min="5" max="16384" width="8.7109375" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="120.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="18" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="121" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="B3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="84.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
